--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beatriz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92B5353E-7C2A-4FD7-BD72-C8A92B1111D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="470">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1582,7 +1583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1663,7 +1664,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1701,7 +1702,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1736,6 +1737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1771,9 +1789,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1946,19 +1981,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R250" sqref="R250"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2006,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1988,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2045,7 +2082,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2086,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2116,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2124,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2165,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2176,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2184,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2203,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2211,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2219,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2227,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2238,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2246,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2273,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2284,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2300,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2359,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2341,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2349,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2368,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2414,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2430,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2460,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2468,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2479,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2490,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2498,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2506,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2514,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2522,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2538,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2546,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2554,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2565,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2573,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2584,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2592,22 +2629,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2618,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2626,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2637,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2648,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -2656,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2664,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2672,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -2680,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2718,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -2729,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2737,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2748,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2756,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2764,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2772,7 +2809,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2783,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2794,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2805,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -2813,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2821,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2832,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2843,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2851,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2862,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2870,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -2881,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -2889,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -2897,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2905,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -2913,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -2921,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -2929,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -2937,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -2948,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -2956,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -2967,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -2978,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -2989,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3000,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -3016,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -3024,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -3032,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -3043,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -3054,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -3062,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -3073,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -3081,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>55</v>
       </c>
@@ -3089,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -3105,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -3113,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3124,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -3132,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -3148,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -3159,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -3167,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3175,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -3183,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -3191,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -3207,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -3215,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3223,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3234,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -3242,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3253,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3261,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -3272,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3283,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -3291,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -3302,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>140</v>
       </c>
@@ -3310,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -3318,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3329,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3340,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -3348,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -3356,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -3364,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3375,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -3383,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -3391,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -3402,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3413,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -3421,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -3432,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -3440,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -3451,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -3462,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -3470,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3478,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -3486,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -3494,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3505,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3516,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -3524,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -3532,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -3543,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>164</v>
       </c>
@@ -3554,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -3562,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>166</v>
       </c>
@@ -3570,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -3578,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>168</v>
       </c>
@@ -3589,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>169</v>
       </c>
@@ -3597,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -3605,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>171</v>
       </c>
@@ -3613,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>172</v>
       </c>
@@ -3624,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>173</v>
       </c>
@@ -3635,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>174</v>
       </c>
@@ -3646,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>175</v>
       </c>
@@ -3654,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>176</v>
       </c>
@@ -3662,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>177</v>
       </c>
@@ -3670,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -3678,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -3686,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -3694,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -3705,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -3713,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -3721,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -3732,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -3743,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -3751,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -3762,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -3773,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -3784,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -3795,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -3806,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -3817,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -3825,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -3833,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -3844,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -3855,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -3866,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -3874,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -3885,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -3896,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -3907,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -3915,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>202</v>
       </c>
@@ -3923,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -3934,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>204</v>
       </c>
@@ -3945,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>205</v>
       </c>
@@ -3953,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>206</v>
       </c>
@@ -3961,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>207</v>
       </c>
@@ -3969,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -3980,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>28</v>
       </c>
@@ -3991,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>208</v>
       </c>
@@ -4002,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -4010,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>210</v>
       </c>
@@ -4018,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>211</v>
       </c>
@@ -4026,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>212</v>
       </c>
@@ -4034,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>213</v>
       </c>
@@ -4042,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>214</v>
       </c>
@@ -4053,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>215</v>
       </c>
@@ -4064,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -4075,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>217</v>
       </c>
@@ -4083,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>218</v>
       </c>
@@ -4091,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>219</v>
       </c>
@@ -4102,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>220</v>
       </c>
@@ -4113,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>221</v>
       </c>
@@ -4124,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>222</v>
       </c>
@@ -4135,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>223</v>
       </c>
@@ -4146,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>224</v>
       </c>
@@ -4154,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>225</v>
       </c>
@@ -4162,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -4170,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -4178,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -4189,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -4197,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -4205,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -4216,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -4224,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>28</v>
       </c>
@@ -4235,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>233</v>
       </c>
@@ -4243,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>234</v>
       </c>
@@ -4251,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>235</v>
       </c>
@@ -4259,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>236</v>
       </c>
@@ -4270,259 +4307,475 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="R251" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q254">
+        <v>1</v>
+      </c>
+      <c r="R254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q256">
+        <v>1</v>
+      </c>
+      <c r="R256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q257">
+        <v>1</v>
+      </c>
+      <c r="R257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q261">
+        <v>1</v>
+      </c>
+      <c r="R261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q263">
+        <v>1</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q265">
+        <v>1</v>
+      </c>
+      <c r="R265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q266">
+        <v>1</v>
+      </c>
+      <c r="R266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q270">
+        <v>1</v>
+      </c>
+      <c r="R270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q274">
+        <v>1</v>
+      </c>
+      <c r="R274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q277">
+        <v>1</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q282">
+        <v>1</v>
+      </c>
+      <c r="R282" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q284">
+        <v>1</v>
+      </c>
+      <c r="R284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q288">
+        <v>1</v>
+      </c>
+      <c r="R288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q290">
+        <v>1</v>
+      </c>
+      <c r="R290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q292">
+        <v>1</v>
+      </c>
+      <c r="R292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q293">
+        <v>1</v>
+      </c>
+      <c r="R293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q294">
+        <v>1</v>
+      </c>
+      <c r="R294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q296">
+        <v>1</v>
+      </c>
+      <c r="R296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="Q300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>286</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4531,1014 +4784,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>465</v>
       </c>

--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92B5353E-7C2A-4FD7-BD72-C8A92B1111D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA368413-6B2F-4FA3-9A60-74E34ADBDBC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="470">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,168 +4785,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>317</v>
       </c>

--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA368413-6B2F-4FA3-9A60-74E34ADBDBC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54535DEF-C528-4D91-B859-4012560EF7CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="470">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4787,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q126" sqref="Q126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,488 +5074,908 @@
       <c r="A31" t="s">
         <v>316</v>
       </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>399</v>
       </c>

--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54535DEF-C528-4D91-B859-4012560EF7CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8A6397A-593E-47E7-9C97-45B666897CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="470">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4787,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q126" sqref="Q126"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q202" sqref="Q202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,380 +5969,725 @@
       <c r="A126" t="s">
         <v>397</v>
       </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>398</v>
       </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>1</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>1</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>1</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>465</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beatriz\Documents\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8A6397A-593E-47E7-9C97-45B666897CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="470">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1583,7 +1582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1664,7 +1663,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1702,7 +1701,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1737,23 +1736,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1789,26 +1771,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1981,21 +1946,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +1971,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2017,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2033,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2074,15 +2039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2112,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2123,18 +2088,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>469</v>
+      <c r="Q14" s="2">
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2142,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2191,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2240,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2248,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2264,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2291,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2299,18 +2264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>469</v>
+      <c r="Q33" s="2">
+        <v>0</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2321,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2337,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2345,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2324,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2378,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2386,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2397,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2405,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2413,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2424,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2435,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2443,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2451,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2459,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2489,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2497,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2505,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2516,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2535,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2543,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2551,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2559,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2567,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2575,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2583,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2602,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2610,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2621,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2629,22 +2594,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2655,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2663,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2674,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2685,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -2693,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2701,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2709,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -2717,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2725,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -2736,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2747,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -2766,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2774,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2785,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2793,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2801,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2809,7 +2789,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2820,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2831,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2842,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -2850,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2858,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2869,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2880,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2888,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2899,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2907,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -2926,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -2934,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2942,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -2950,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -2958,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -2966,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -2974,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -2985,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -2993,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3004,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -3015,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -3026,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -3053,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -3061,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -3069,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -3080,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -3091,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -3099,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -3110,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -3118,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3134,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -3142,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -3150,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3161,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -3169,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -3177,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -3185,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -3196,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -3204,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3212,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -3220,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -3228,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3236,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -3244,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -3252,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3260,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3271,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -3279,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3290,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3298,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -3309,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3320,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -3328,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -3339,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>140</v>
       </c>
@@ -3347,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -3355,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3366,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3377,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -3385,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -3393,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -3401,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3412,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -3420,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -3428,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3450,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -3458,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -3469,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -3477,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -3488,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -3499,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -3507,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3515,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -3523,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -3531,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3542,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3553,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -3561,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -3569,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -3580,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>164</v>
       </c>
@@ -3591,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -3599,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>166</v>
       </c>
@@ -3607,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -3615,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>168</v>
       </c>
@@ -3626,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>169</v>
       </c>
@@ -3634,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -3642,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>171</v>
       </c>
@@ -3650,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>172</v>
       </c>
@@ -3661,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>173</v>
       </c>
@@ -3672,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>174</v>
       </c>
@@ -3683,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>175</v>
       </c>
@@ -3691,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>176</v>
       </c>
@@ -3699,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>177</v>
       </c>
@@ -3707,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -3715,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -3723,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -3731,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -3742,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -3750,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -3758,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -3769,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -3780,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -3788,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -3799,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -3810,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -3821,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -3832,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -3843,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -3854,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -3862,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -3870,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -3881,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -3892,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -3903,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -3911,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -3922,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -3933,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -3944,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -3952,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>202</v>
       </c>
@@ -3960,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -3971,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>204</v>
       </c>
@@ -3982,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>205</v>
       </c>
@@ -3990,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>206</v>
       </c>
@@ -3998,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>207</v>
       </c>
@@ -4006,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -4017,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>208</v>
       </c>
@@ -4039,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -4047,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>210</v>
       </c>
@@ -4055,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>211</v>
       </c>
@@ -4063,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>212</v>
       </c>
@@ -4071,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>213</v>
       </c>
@@ -4079,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>214</v>
       </c>
@@ -4090,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>215</v>
       </c>
@@ -4101,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -4112,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>217</v>
       </c>
@@ -4120,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>218</v>
       </c>
@@ -4128,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>219</v>
       </c>
@@ -4139,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>220</v>
       </c>
@@ -4150,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>221</v>
       </c>
@@ -4161,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>222</v>
       </c>
@@ -4172,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>223</v>
       </c>
@@ -4183,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>224</v>
       </c>
@@ -4191,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>225</v>
       </c>
@@ -4199,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -4207,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -4215,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -4226,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -4234,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -4242,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -4253,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -4261,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>28</v>
       </c>
@@ -4272,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>233</v>
       </c>
@@ -4280,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>234</v>
       </c>
@@ -4288,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>235</v>
       </c>
@@ -4296,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>236</v>
       </c>
@@ -4307,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>237</v>
       </c>
@@ -4318,7 +4298,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>238</v>
       </c>
@@ -4326,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>239</v>
       </c>
@@ -4334,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -4345,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -4353,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -4364,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>243</v>
       </c>
@@ -4375,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>244</v>
       </c>
@@ -4383,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>245</v>
       </c>
@@ -4391,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>246</v>
       </c>
@@ -4399,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>247</v>
       </c>
@@ -4410,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>248</v>
       </c>
@@ -4418,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>249</v>
       </c>
@@ -4429,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>250</v>
       </c>
@@ -4440,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>251</v>
       </c>
@@ -4451,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>252</v>
       </c>
@@ -4462,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>253</v>
       </c>
@@ -4470,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>254</v>
       </c>
@@ -4478,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>255</v>
       </c>
@@ -4486,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>256</v>
       </c>
@@ -4497,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -4505,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>258</v>
       </c>
@@ -4513,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>259</v>
       </c>
@@ -4521,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>260</v>
       </c>
@@ -4532,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>261</v>
       </c>
@@ -4540,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>262</v>
       </c>
@@ -4551,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>52</v>
       </c>
@@ -4562,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>263</v>
       </c>
@@ -4570,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>264</v>
       </c>
@@ -4578,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>265</v>
       </c>
@@ -4586,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>266</v>
       </c>
@@ -4594,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>267</v>
       </c>
@@ -4605,7 +4585,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>268</v>
       </c>
@@ -4613,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>269</v>
       </c>
@@ -4624,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>270</v>
       </c>
@@ -4632,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>271</v>
       </c>
@@ -4640,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>272</v>
       </c>
@@ -4648,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>273</v>
       </c>
@@ -4659,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>274</v>
       </c>
@@ -4667,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>275</v>
       </c>
@@ -4678,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>276</v>
       </c>
@@ -4686,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>277</v>
       </c>
@@ -4697,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>278</v>
       </c>
@@ -4708,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>279</v>
       </c>
@@ -4719,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>280</v>
       </c>
@@ -4727,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>281</v>
       </c>
@@ -4738,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>282</v>
       </c>
@@ -4746,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>283</v>
       </c>
@@ -4754,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>284</v>
       </c>
@@ -4762,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>285</v>
       </c>
@@ -4770,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>286</v>
       </c>
@@ -4784,20 +4764,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A182" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="Q202" sqref="Q202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
@@ -4808,7 +4788,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -4816,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -4827,7 +4807,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -4835,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -4846,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -4854,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>292</v>
       </c>
@@ -4862,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -4870,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -4881,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>295</v>
       </c>
@@ -4889,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -4900,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -4908,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -4919,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>299</v>
       </c>
@@ -4927,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -4935,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>301</v>
       </c>
@@ -4946,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -4954,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>303</v>
       </c>
@@ -4965,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>304</v>
       </c>
@@ -4976,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>305</v>
       </c>
@@ -4987,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>306</v>
       </c>
@@ -4995,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>307</v>
       </c>
@@ -5003,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>308</v>
       </c>
@@ -5011,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -5019,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -5027,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -5035,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>312</v>
       </c>
@@ -5043,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -5054,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>314</v>
       </c>
@@ -5062,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>315</v>
       </c>
@@ -5070,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>316</v>
       </c>
@@ -5081,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>317</v>
       </c>
@@ -5089,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>318</v>
       </c>
@@ -5097,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>319</v>
       </c>
@@ -5105,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>320</v>
       </c>
@@ -5116,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>321</v>
       </c>
@@ -5124,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -5132,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5140,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -5151,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -5162,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>324</v>
       </c>
@@ -5170,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -5181,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -5189,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -5197,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>327</v>
       </c>
@@ -5205,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -5216,7 +5196,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -5224,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>330</v>
       </c>
@@ -5235,7 +5215,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>331</v>
       </c>
@@ -5246,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>332</v>
       </c>
@@ -5257,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>333</v>
       </c>
@@ -5268,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -5276,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>335</v>
       </c>
@@ -5287,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>336</v>
       </c>
@@ -5298,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>337</v>
       </c>
@@ -5306,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>338</v>
       </c>
@@ -5314,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>339</v>
       </c>
@@ -5322,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -5333,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>341</v>
       </c>
@@ -5344,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>342</v>
       </c>
@@ -5352,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>343</v>
       </c>
@@ -5363,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>344</v>
       </c>
@@ -5374,7 +5354,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>345</v>
       </c>
@@ -5382,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>346</v>
       </c>
@@ -5390,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>347</v>
       </c>
@@ -5401,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -5412,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -5423,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -5431,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>350</v>
       </c>
@@ -5439,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>351</v>
       </c>
@@ -5450,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -5461,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -5472,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>352</v>
       </c>
@@ -5480,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -5488,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>354</v>
       </c>
@@ -5499,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>355</v>
       </c>
@@ -5507,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>356</v>
       </c>
@@ -5518,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>357</v>
       </c>
@@ -5526,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -5534,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -5545,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>359</v>
       </c>
@@ -5556,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>360</v>
       </c>
@@ -5567,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>361</v>
       </c>
@@ -5575,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>362</v>
       </c>
@@ -5586,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>363</v>
       </c>
@@ -5594,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>364</v>
       </c>
@@ -5605,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>365</v>
       </c>
@@ -5613,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>366</v>
       </c>
@@ -5621,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>367</v>
       </c>
@@ -5629,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>368</v>
       </c>
@@ -5640,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -5651,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>369</v>
       </c>
@@ -5659,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>370</v>
       </c>
@@ -5670,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>371</v>
       </c>
@@ -5678,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -5689,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>373</v>
       </c>
@@ -5697,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>374</v>
       </c>
@@ -5705,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>375</v>
       </c>
@@ -5713,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>376</v>
       </c>
@@ -5721,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -5729,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>377</v>
       </c>
@@ -5740,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -5748,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>379</v>
       </c>
@@ -5756,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>380</v>
       </c>
@@ -5764,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>381</v>
       </c>
@@ -5775,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>382</v>
       </c>
@@ -5786,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>383</v>
       </c>
@@ -5794,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>384</v>
       </c>
@@ -5802,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>385</v>
       </c>
@@ -5810,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>386</v>
       </c>
@@ -5818,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -5829,7 +5809,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -5840,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>387</v>
       </c>
@@ -5851,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>106</v>
       </c>
@@ -5862,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>388</v>
       </c>
@@ -5870,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>351</v>
       </c>
@@ -5881,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>389</v>
       </c>
@@ -5892,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>390</v>
       </c>
@@ -5900,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>391</v>
       </c>
@@ -5908,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>392</v>
       </c>
@@ -5927,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -5938,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>394</v>
       </c>
@@ -5949,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>395</v>
       </c>
@@ -5957,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>396</v>
       </c>
@@ -5965,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>397</v>
       </c>
@@ -5976,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>398</v>
       </c>
@@ -5987,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>399</v>
       </c>
@@ -5998,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>400</v>
       </c>
@@ -6009,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>401</v>
       </c>
@@ -6017,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>402</v>
       </c>
@@ -6028,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>403</v>
       </c>
@@ -6036,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>404</v>
       </c>
@@ -6044,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>405</v>
       </c>
@@ -6052,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -6063,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -6074,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -6085,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -6096,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -6107,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>409</v>
       </c>
@@ -6118,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>410</v>
       </c>
@@ -6126,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>411</v>
       </c>
@@ -6134,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>412</v>
       </c>
@@ -6145,7 +6125,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>413</v>
       </c>
@@ -6153,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>414</v>
       </c>
@@ -6164,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>415</v>
       </c>
@@ -6172,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -6180,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>417</v>
       </c>
@@ -6191,7 +6171,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>418</v>
       </c>
@@ -6199,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>419</v>
       </c>
@@ -6207,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>420</v>
       </c>
@@ -6218,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -6226,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>422</v>
       </c>
@@ -6234,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>423</v>
       </c>
@@ -6245,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -6253,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>242</v>
       </c>
@@ -6261,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>424</v>
       </c>
@@ -6269,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>425</v>
       </c>
@@ -6280,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>426</v>
       </c>
@@ -6288,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>427</v>
       </c>
@@ -6296,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>428</v>
       </c>
@@ -6307,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>429</v>
       </c>
@@ -6315,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>430</v>
       </c>
@@ -6323,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>431</v>
       </c>
@@ -6331,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>432</v>
       </c>
@@ -6342,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>433</v>
       </c>
@@ -6353,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>434</v>
       </c>
@@ -6364,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>435</v>
       </c>
@@ -6372,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>436</v>
       </c>
@@ -6383,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>437</v>
       </c>
@@ -6391,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>438</v>
       </c>
@@ -6402,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>439</v>
       </c>
@@ -6410,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>440</v>
       </c>
@@ -6418,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>441</v>
       </c>
@@ -6429,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>442</v>
       </c>
@@ -6440,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>443</v>
       </c>
@@ -6448,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>444</v>
       </c>
@@ -6459,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>142</v>
       </c>
@@ -6470,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>445</v>
       </c>
@@ -6478,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>446</v>
       </c>
@@ -6486,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>447</v>
       </c>
@@ -6494,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>448</v>
       </c>
@@ -6502,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>449</v>
       </c>
@@ -6513,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>450</v>
       </c>
@@ -6524,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -6532,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>451</v>
       </c>
@@ -6543,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>452</v>
       </c>
@@ -6554,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>453</v>
       </c>
@@ -6565,7 +6545,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>454</v>
       </c>
@@ -6576,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>455</v>
       </c>
@@ -6584,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>456</v>
       </c>
@@ -6595,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>457</v>
       </c>
@@ -6603,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>458</v>
       </c>
@@ -6614,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>459</v>
       </c>
@@ -6625,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>460</v>
       </c>
@@ -6636,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>461</v>
       </c>
@@ -6644,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>462</v>
       </c>
@@ -6655,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>463</v>
       </c>
@@ -6663,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>52</v>
       </c>
@@ -6674,7 +6654,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>464</v>
       </c>
@@ -6682,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>465</v>
       </c>

--- a/tweets_lindt_201809051819.xlsx
+++ b/tweets_lindt_201809051819.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="471">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1577,6 +1577,9 @@
   </si>
   <si>
     <t>0/1</t>
+  </si>
+  <si>
+    <t>Produto/Marca escolhido: LINDT</t>
   </si>
 </sst>
 </file>
@@ -1600,12 +1603,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1635,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1643,6 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S301"/>
+  <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,9 +1968,10 @@
     <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,8 +1981,11 @@
       <c r="R1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U1" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4760,6 +4774,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
